--- a/input_csv/06_Netzteile/artikel.xlsx
+++ b/input_csv/06_Netzteile/artikel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\06_Netzteile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952562B2-4AA1-4C3D-9E35-A6458BA4AA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BD384D-1167-4157-AB6D-082A4F03813A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA5C3178-B406-488C-A253-FA4EFFD7783F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA5C3178-B406-488C-A253-FA4EFFD7783F}"/>
   </bookViews>
   <sheets>
     <sheet name="psu_liste" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Artikelname</t>
   </si>
@@ -31,32 +31,98 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>400Watt Xilence XP400 Performance C - XN051</t>
-  </si>
-  <si>
-    <t>4,04495E+12</t>
-  </si>
-  <si>
-    <t>1000W Gigabyte UD1000GM PG5 ATX 2.31 PCIe 5.0 80+ Gold</t>
-  </si>
-  <si>
-    <t>4,71933E+12</t>
-  </si>
-  <si>
-    <t>850W Be Quiet! SYSTEM POWER 11 M 80+ Gold</t>
-  </si>
-  <si>
-    <t>4,26005E+12</t>
-  </si>
-  <si>
     <t>1000W Be Quiet! PURE POWER 12 M 80+ Gold</t>
+  </si>
+  <si>
+    <t>1000W Be Quiet! PURE POWER 13 M 80+ Gold</t>
+  </si>
+  <si>
+    <t>1000W Corsair RM1000x 80 PLUS Gold</t>
+  </si>
+  <si>
+    <t>1000W Corsair RM1000x Shift</t>
+  </si>
+  <si>
+    <t>1200W ASUS ROG Strix 80 PLUS Platinum</t>
+  </si>
+  <si>
+    <t>1200W ASUS ROG Thor Platinum III</t>
+  </si>
+  <si>
+    <t>1200W Corsair RM1200x Shift</t>
+  </si>
+  <si>
+    <t>1300W Gigabyte UD1300GM PG5 80+ Gold</t>
+  </si>
+  <si>
+    <t>1300W MSI MEG Ai1300P PCIE5 80 PLUS Platinum</t>
+  </si>
+  <si>
+    <t>1500W Corsair HXi Series HX1500i</t>
+  </si>
+  <si>
+    <t>450W Be Quiet! SYSTEM POWER 11 B 80+ Bronze</t>
+  </si>
+  <si>
+    <t>500W MSI MAG A500N-H</t>
+  </si>
+  <si>
+    <t>650W Be Quiet! PURE POWER 13 M 80+ Gold</t>
+  </si>
+  <si>
+    <t>650W Be Quiet! SYSTEM POWER 11 B 80+ Bronze</t>
+  </si>
+  <si>
+    <t>650W Be Quiet! SYSTEM POWER 11 M 80+ Gold</t>
+  </si>
+  <si>
+    <t>650W Gigabyte P650SS Netzteil</t>
+  </si>
+  <si>
+    <t>750W ASUS PRIME - 80 PLUS Gold</t>
+  </si>
+  <si>
+    <t>750W Be Quiet! PURE POWER 13 M 80+ Gold</t>
+  </si>
+  <si>
+    <t>750W Be Quiet! SYSTEM POWER 11 B 80+ Bronze</t>
+  </si>
+  <si>
+    <t>750W Be Quiet! SYSTEM POWER 11 M 80+ Gold</t>
+  </si>
+  <si>
+    <t>750W Corsair RM750</t>
+  </si>
+  <si>
+    <t>750W Corsair RMx Series RM750x</t>
+  </si>
+  <si>
+    <t>750W Gigabyte UD750GM PG5 V2 80+ Gold</t>
+  </si>
+  <si>
+    <t>850W Be Quiet! PURE POWER 13 M 80+ Gold</t>
+  </si>
+  <si>
+    <t>850W Corsair RM850</t>
+  </si>
+  <si>
+    <t>850W Corsair RM850x 80 PLUS Gold</t>
+  </si>
+  <si>
+    <t>850W Corsair RM850x Shift</t>
+  </si>
+  <si>
+    <t>850W Corsair RMe Series RM850e 80 PLUS Gold</t>
+  </si>
+  <si>
+    <t>850W MSI MAG A850GL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +253,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -533,9 +606,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -911,15 +985,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076CE51D-F1B0-4B8C-9057-9A738CC8404C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="55.42578125" customWidth="1"/>
   </cols>
@@ -936,47 +1010,322 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>101312</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>107097</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4260052189504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="2">
+        <v>107047</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4260052192207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>103300</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="2">
+        <v>107028</v>
+      </c>
+      <c r="C4" s="1">
+        <v>840006667636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="2">
+        <v>106591</v>
+      </c>
+      <c r="C5">
+        <v>840006668381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>107041</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B6" s="2">
+        <v>107118</v>
+      </c>
+      <c r="C6">
+        <v>4711387594247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" s="2">
+        <v>107121</v>
+      </c>
+      <c r="C7">
+        <v>4711387610442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>107097</v>
-      </c>
-      <c r="C5">
-        <v>4260052189504</v>
+      <c r="B8" s="2">
+        <v>106593</v>
+      </c>
+      <c r="C8">
+        <v>840006668688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>107119</v>
+      </c>
+      <c r="C9">
+        <v>4719331553388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>107120</v>
+      </c>
+      <c r="C10">
+        <v>4719072970260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>107059</v>
+      </c>
+      <c r="C11">
+        <v>840440495901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>107042</v>
+      </c>
+      <c r="C12">
+        <v>4260052191897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>107032</v>
+      </c>
+      <c r="C13">
+        <v>4711377366434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>107201</v>
+      </c>
+      <c r="C14">
+        <v>4260052193051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>107043</v>
+      </c>
+      <c r="C15">
+        <v>4260052191903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>107039</v>
+      </c>
+      <c r="C16">
+        <v>4260052191989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>107068</v>
+      </c>
+      <c r="C17">
+        <v>4719331554095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>107058</v>
+      </c>
+      <c r="C18">
+        <v>4711387192962</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>107045</v>
+      </c>
+      <c r="C19">
+        <v>4260052192184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>107044</v>
+      </c>
+      <c r="C20">
+        <v>4260052191910</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>107040</v>
+      </c>
+      <c r="C21">
+        <v>4260052191996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>106590</v>
+      </c>
+      <c r="C22">
+        <v>840006628712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>107023</v>
+      </c>
+      <c r="C23">
+        <v>840006676850</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>107101</v>
+      </c>
+      <c r="C24">
+        <v>4719331555870</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>107046</v>
+      </c>
+      <c r="C25">
+        <v>4260052192191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>106589</v>
+      </c>
+      <c r="C26">
+        <v>840006628835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2">
+        <v>107025</v>
+      </c>
+      <c r="C27">
+        <v>840006667445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2">
+        <v>106592</v>
+      </c>
+      <c r="C28">
+        <v>840006668206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>107000</v>
+      </c>
+      <c r="C29">
+        <v>840006687078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
+        <v>106594</v>
+      </c>
+      <c r="C30">
+        <v>4711377115391</v>
       </c>
     </row>
   </sheetData>
